--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Code\ev-fleet-management\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07822414-D49E-424E-8769-17214E5A253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33CE9023-6B73-4D1D-AC78-DE91C3614064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles" sheetId="14" r:id="rId1"/>
@@ -261,13 +261,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +335,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -769,7 +774,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -904,9 +909,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,6 +990,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2307,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8460FE-6ABC-49F9-983D-420511EC6722}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2318,253 +2321,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="66">
         <v>0</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="66">
         <v>0</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="66">
         <v>5</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="67">
         <v>40</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="67" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="66">
         <v>0</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="66">
         <v>0</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="66">
         <v>5</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="67">
         <v>40</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="66">
         <v>0</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="66">
         <v>5</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="66">
         <v>15</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="67">
         <v>50</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="66">
         <v>0</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="66">
         <v>10</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="66">
         <v>19</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="67">
         <v>50</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="66">
         <v>0</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="66">
         <v>17</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="66">
         <v>21</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="67">
         <v>50</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="66">
         <v>0</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="66">
         <v>0</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="67">
         <v>23</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="67">
         <v>67.2</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="15">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="66">
         <v>0</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="66">
         <v>0</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="67">
         <v>23</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="67">
         <v>96.8</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="69">
+      <c r="B9" s="66">
         <v>0</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="66">
         <v>0</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="67">
         <v>21</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="67">
         <v>96.8</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="66">
         <v>0</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="66">
         <v>0</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="67">
         <v>20</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="67">
         <v>96.8</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="66">
         <v>0</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="66">
         <v>0</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="67">
         <v>21</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="67">
         <v>200</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="66">
         <v>0</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="66">
         <v>0</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="67">
         <v>22</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="67">
         <v>200</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="67" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="24"/>
@@ -2614,19 +2617,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="24"/>
@@ -2681,21 +2684,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2704,12 +2707,12 @@
       <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="60">
         <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2718,12 +2721,12 @@
       <c r="C3" s="3">
         <v>7</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="60">
         <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2732,13 +2735,13 @@
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="60">
         <v>0.95</v>
       </c>
       <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2747,13 +2750,13 @@
       <c r="C5" s="3">
         <v>15</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="60">
         <v>0.92</v>
       </c>
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2762,13 +2765,13 @@
       <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="60">
         <v>0.95</v>
       </c>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="53" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2777,13 +2780,13 @@
       <c r="C7" s="3">
         <v>12</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="60">
         <v>0.95</v>
       </c>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="53" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2792,13 +2795,13 @@
       <c r="C8" s="3">
         <v>22</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="60">
         <v>0.92</v>
       </c>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="54" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2807,13 +2810,13 @@
       <c r="C9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="60">
         <v>0.95</v>
       </c>
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2822,22 +2825,22 @@
       <c r="C10" s="3">
         <v>12</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="60">
         <v>0.95</v>
       </c>
       <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="56">
         <v>22</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="61">
         <v>0.92</v>
       </c>
       <c r="E11" s="24"/>
@@ -2870,7 +2873,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2923,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="25">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>500</v>
@@ -7933,16 +7936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="73"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="5"/>
@@ -11969,18 +11972,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" thickBot="1">
       <c r="C3" s="1"/>
@@ -15043,19 +15046,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC90B87-BEDB-4398-A381-44C0E9C4ABB3}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="51" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="24"/>
@@ -15064,8 +15070,8 @@
       <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="50">
-        <v>0</v>
+      <c r="A2" s="77">
+        <v>41488</v>
       </c>
       <c r="B2" s="48">
         <v>0</v>
@@ -15076,8 +15082,8 @@
       <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="51">
-        <v>4.1666666666666664E-2</v>
+      <c r="A3" s="77">
+        <v>41488.041666666664</v>
       </c>
       <c r="B3" s="48">
         <v>0</v>
@@ -15088,8 +15094,8 @@
       <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="51">
-        <v>8.3333333333333329E-2</v>
+      <c r="A4" s="77">
+        <v>41488.08333321759</v>
       </c>
       <c r="B4" s="48">
         <v>0</v>
@@ -15100,8 +15106,8 @@
       <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="50">
-        <v>0.125</v>
+      <c r="A5" s="77">
+        <v>41488.124999826388</v>
       </c>
       <c r="B5" s="48">
         <v>6</v>
@@ -15112,8 +15118,8 @@
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="51">
-        <v>0.16666666666666699</v>
+      <c r="A6" s="77">
+        <v>41488.166666435187</v>
       </c>
       <c r="B6" s="48">
         <v>12</v>
@@ -15124,8 +15130,8 @@
       <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="51">
-        <v>0.20833333333333301</v>
+      <c r="A7" s="77">
+        <v>41488.208333043978</v>
       </c>
       <c r="B7" s="48">
         <v>22</v>
@@ -15136,8 +15142,8 @@
       <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="50">
-        <v>0.25</v>
+      <c r="A8" s="77">
+        <v>41488.249999652777</v>
       </c>
       <c r="B8" s="48">
         <v>0</v>
@@ -15148,8 +15154,8 @@
       <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="51">
-        <v>0.29166666666666702</v>
+      <c r="A9" s="77">
+        <v>41488.291666261575</v>
       </c>
       <c r="B9" s="48">
         <v>0</v>
@@ -15160,8 +15166,8 @@
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="51">
-        <v>0.33333333333333298</v>
+      <c r="A10" s="77">
+        <v>41488.333332870374</v>
       </c>
       <c r="B10" s="48">
         <v>0</v>
@@ -15172,8 +15178,8 @@
       <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="50">
-        <v>0.375</v>
+      <c r="A11" s="77">
+        <v>41488.374999479165</v>
       </c>
       <c r="B11" s="48">
         <v>0</v>
@@ -15184,8 +15190,8 @@
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="51">
-        <v>0.41666666666666702</v>
+      <c r="A12" s="77">
+        <v>41488.416666087964</v>
       </c>
       <c r="B12" s="48">
         <v>0</v>
@@ -15196,8 +15202,8 @@
       <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="51">
-        <v>0.45833333333333298</v>
+      <c r="A13" s="77">
+        <v>41488.458332696762</v>
       </c>
       <c r="B13" s="48">
         <v>0</v>
@@ -15208,8 +15214,8 @@
       <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="50">
-        <v>0.5</v>
+      <c r="A14" s="77">
+        <v>41488.499999305554</v>
       </c>
       <c r="B14" s="48">
         <v>4</v>
@@ -15220,8 +15226,8 @@
       <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="51">
-        <v>0.54166666666666696</v>
+      <c r="A15" s="77">
+        <v>41488.541665914352</v>
       </c>
       <c r="B15" s="48">
         <v>12</v>
@@ -15232,8 +15238,8 @@
       <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="51">
-        <v>0.58333333333333304</v>
+      <c r="A16" s="77">
+        <v>41488.583332523151</v>
       </c>
       <c r="B16" s="48">
         <v>30</v>
@@ -15244,8 +15250,8 @@
       <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="50">
-        <v>0.625</v>
+      <c r="A17" s="77">
+        <v>41488.624999131942</v>
       </c>
       <c r="B17" s="48">
         <v>32</v>
@@ -15256,8 +15262,8 @@
       <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="51">
-        <v>0.66666666666666696</v>
+      <c r="A18" s="77">
+        <v>41488.66666574074</v>
       </c>
       <c r="B18" s="48">
         <v>22</v>
@@ -15268,8 +15274,8 @@
       <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="51">
-        <v>0.70833333333333304</v>
+      <c r="A19" s="77">
+        <v>41488.708332349539</v>
       </c>
       <c r="B19" s="48">
         <v>0</v>
@@ -15280,8 +15286,8 @@
       <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="50">
-        <v>0.75</v>
+      <c r="A20" s="77">
+        <v>41488.74999895833</v>
       </c>
       <c r="B20" s="48">
         <v>0</v>
@@ -15292,8 +15298,8 @@
       <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="51">
-        <v>0.79166666666666696</v>
+      <c r="A21" s="77">
+        <v>41488.791665567129</v>
       </c>
       <c r="B21" s="48">
         <v>6</v>
@@ -15304,8 +15310,8 @@
       <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="51">
-        <v>0.83333333333333304</v>
+      <c r="A22" s="77">
+        <v>41488.833332175927</v>
       </c>
       <c r="B22" s="48">
         <v>22</v>
@@ -15316,8 +15322,8 @@
       <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="50">
-        <v>0.875</v>
+      <c r="A23" s="77">
+        <v>41488.874998784719</v>
       </c>
       <c r="B23" s="48">
         <v>22</v>
@@ -15328,8 +15334,8 @@
       <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="51">
-        <v>0.91666666666666696</v>
+      <c r="A24" s="77">
+        <v>41488.916665393517</v>
       </c>
       <c r="B24" s="48">
         <v>0</v>
@@ -15337,8 +15343,8 @@
       <c r="C24" s="24"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="52">
-        <v>0.95833333333333304</v>
+      <c r="A25" s="77">
+        <v>41488.958332002316</v>
       </c>
       <c r="B25" s="49">
         <v>0</v>
